--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H2">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I2">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J2">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N2">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O2">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P2">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q2">
-        <v>3.389092687891777</v>
+        <v>13.97361203656289</v>
       </c>
       <c r="R2">
-        <v>30.501834191026</v>
+        <v>125.762508329066</v>
       </c>
       <c r="S2">
-        <v>3.688109292724541E-05</v>
+        <v>0.0001081810579693264</v>
       </c>
       <c r="T2">
-        <v>3.68810929272454E-05</v>
+        <v>0.0001081810579693264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H3">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I3">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J3">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.3792</v>
       </c>
       <c r="O3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q3">
-        <v>6.176638308622221</v>
+        <v>11.23290580657778</v>
       </c>
       <c r="R3">
-        <v>55.58974477759999</v>
+        <v>101.0961522592</v>
       </c>
       <c r="S3">
-        <v>6.72159756067298E-05</v>
+        <v>8.696302939037907E-05</v>
       </c>
       <c r="T3">
-        <v>6.721597560672979E-05</v>
+        <v>8.696302939037911E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H4">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I4">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J4">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N4">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q4">
-        <v>268.1803437636351</v>
+        <v>675.813862013167</v>
       </c>
       <c r="R4">
-        <v>2413.623093872716</v>
+        <v>6082.324758118503</v>
       </c>
       <c r="S4">
-        <v>0.002918416546984413</v>
+        <v>0.005232022929477568</v>
       </c>
       <c r="T4">
-        <v>0.002918416546984413</v>
+        <v>0.005232022929477569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H5">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I5">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J5">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N5">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q5">
-        <v>517.4592097772729</v>
+        <v>972.8716916438543</v>
       </c>
       <c r="R5">
-        <v>4657.132887995455</v>
+        <v>8755.84522479469</v>
       </c>
       <c r="S5">
-        <v>0.005631141712363811</v>
+        <v>0.007531788387644976</v>
       </c>
       <c r="T5">
-        <v>0.00563114171236381</v>
+        <v>0.007531788387644978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H6">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I6">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J6">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N6">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q6">
-        <v>320.0937658669165</v>
+        <v>273.4310686356923</v>
       </c>
       <c r="R6">
-        <v>2880.843892802248</v>
+        <v>2460.879617721231</v>
       </c>
       <c r="S6">
-        <v>0.003483353514215442</v>
+        <v>0.002116851549140944</v>
       </c>
       <c r="T6">
-        <v>0.003483353514215442</v>
+        <v>0.002116851549140945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>460.130753</v>
       </c>
       <c r="I7">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J7">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N7">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O7">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P7">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q7">
-        <v>150.8994714412362</v>
+        <v>342.115701711611</v>
       </c>
       <c r="R7">
-        <v>1358.095242971126</v>
+        <v>3079.041315404499</v>
       </c>
       <c r="S7">
-        <v>0.001642131963159269</v>
+        <v>0.002648594970451468</v>
       </c>
       <c r="T7">
-        <v>0.001642131963159269</v>
+        <v>0.002648594970451469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J8">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>5.3792</v>
       </c>
       <c r="O8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q8">
         <v>275.0150385041778</v>
@@ -951,10 +951,10 @@
         <v>2475.1353465376</v>
       </c>
       <c r="S8">
-        <v>0.002992793684191633</v>
+        <v>0.002129114343879765</v>
       </c>
       <c r="T8">
-        <v>0.002992793684191632</v>
+        <v>0.002129114343879766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J9">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N9">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q9">
-        <v>11940.73926317882</v>
+        <v>16545.93909034408</v>
       </c>
       <c r="R9">
-        <v>107466.6533686093</v>
+        <v>148913.4518130967</v>
       </c>
       <c r="S9">
-        <v>0.1299425996694277</v>
+        <v>0.1280955268548972</v>
       </c>
       <c r="T9">
-        <v>0.1299425996694276</v>
+        <v>0.1280955268548972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J10">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N10">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q10">
-        <v>23039.8895629979</v>
+        <v>23818.80079332495</v>
       </c>
       <c r="R10">
-        <v>207359.0060669811</v>
+        <v>214369.2071399245</v>
       </c>
       <c r="S10">
-        <v>0.2507267833193978</v>
+        <v>0.1844006447753311</v>
       </c>
       <c r="T10">
-        <v>0.2507267833193977</v>
+        <v>0.1844006447753311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J11">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N11">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q11">
-        <v>14252.18621300066</v>
+        <v>6694.408122344362</v>
       </c>
       <c r="R11">
-        <v>128269.6759170059</v>
+        <v>60249.67310109925</v>
       </c>
       <c r="S11">
-        <v>0.1550964380573082</v>
+        <v>0.05182683985062172</v>
       </c>
       <c r="T11">
-        <v>0.1550964380573081</v>
+        <v>0.05182683985062173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H12">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I12">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J12">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N12">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O12">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P12">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q12">
-        <v>90.20877998157667</v>
+        <v>530.1631635280432</v>
       </c>
       <c r="R12">
-        <v>811.8790198341901</v>
+        <v>4771.468471752389</v>
       </c>
       <c r="S12">
-        <v>0.0009816781964212258</v>
+        <v>0.004104422806126229</v>
       </c>
       <c r="T12">
-        <v>0.0009816781964212256</v>
+        <v>0.004104422806126231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H13">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I13">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J13">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>5.3792</v>
       </c>
       <c r="O13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q13">
-        <v>164.4059509493333</v>
+        <v>426.1799213006222</v>
       </c>
       <c r="R13">
-        <v>1479.653558544</v>
+        <v>3835.6192917056</v>
       </c>
       <c r="S13">
-        <v>0.001789113403837404</v>
+        <v>0.003299404237855596</v>
       </c>
       <c r="T13">
-        <v>0.001789113403837403</v>
+        <v>0.003299404237855598</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H14">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N14">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q14">
-        <v>7138.259072225728</v>
+        <v>25640.5869937931</v>
       </c>
       <c r="R14">
-        <v>64244.33165003156</v>
+        <v>230765.2829441379</v>
       </c>
       <c r="S14">
-        <v>0.07768061260823104</v>
+        <v>0.1985045685170868</v>
       </c>
       <c r="T14">
-        <v>0.07768061260823103</v>
+        <v>0.1985045685170869</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H15">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N15">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q15">
-        <v>13773.4102613983</v>
+        <v>36911.05294745625</v>
       </c>
       <c r="R15">
-        <v>123960.6923525847</v>
+        <v>332199.4765271062</v>
       </c>
       <c r="S15">
-        <v>0.1498862588180495</v>
+        <v>0.2857583814528046</v>
       </c>
       <c r="T15">
-        <v>0.1498862588180495</v>
+        <v>0.2857583814528047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H16">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N16">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q16">
-        <v>8520.058540070548</v>
+        <v>10374.05933236493</v>
       </c>
       <c r="R16">
-        <v>76680.52686063494</v>
+        <v>93366.53399128438</v>
       </c>
       <c r="S16">
-        <v>0.09271775655017048</v>
+        <v>0.0803140026412133</v>
       </c>
       <c r="T16">
-        <v>0.09271775655017046</v>
+        <v>0.08031400264121334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H17">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I17">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J17">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N17">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O17">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P17">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q17">
-        <v>17.89616200459022</v>
+        <v>15.18472700016311</v>
       </c>
       <c r="R17">
-        <v>161.065458041312</v>
+        <v>136.662543001468</v>
       </c>
       <c r="S17">
-        <v>0.0001947512430953635</v>
+        <v>0.0001175572806483254</v>
       </c>
       <c r="T17">
-        <v>0.0001947512430953634</v>
+        <v>0.0001175572806483254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H18">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I18">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J18">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>5.3792</v>
       </c>
       <c r="O18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q18">
-        <v>32.61584441457777</v>
+        <v>12.20647944462222</v>
       </c>
       <c r="R18">
-        <v>293.5425997312</v>
+        <v>109.8583150016</v>
       </c>
       <c r="S18">
-        <v>0.0003549351108195578</v>
+        <v>9.450025211411804E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003549351108195578</v>
+        <v>9.450025211411807E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H19">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I19">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J19">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N19">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q19">
-        <v>1416.130900045177</v>
+        <v>734.3877138383768</v>
       </c>
       <c r="R19">
-        <v>12745.17810040659</v>
+        <v>6609.489424545392</v>
       </c>
       <c r="S19">
-        <v>0.01541074857831614</v>
+        <v>0.005685490597193665</v>
       </c>
       <c r="T19">
-        <v>0.01541074857831614</v>
+        <v>0.005685490597193666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H20">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N20">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q20">
-        <v>2732.452222987719</v>
+        <v>1057.192013428225</v>
       </c>
       <c r="R20">
-        <v>24592.07000688947</v>
+        <v>9514.728120854023</v>
       </c>
       <c r="S20">
-        <v>0.02973534029190481</v>
+        <v>0.008184580349743198</v>
       </c>
       <c r="T20">
-        <v>0.02973534029190481</v>
+        <v>0.0081845803497432</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H21">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N21">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q21">
-        <v>1690.260614907276</v>
+        <v>297.1297700073487</v>
       </c>
       <c r="R21">
-        <v>15212.34553416549</v>
+        <v>2674.167930066139</v>
       </c>
       <c r="S21">
-        <v>0.01839390791298678</v>
+        <v>0.002300322406938963</v>
       </c>
       <c r="T21">
-        <v>0.01839390791298678</v>
+        <v>0.002300322406938963</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H22">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I22">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J22">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N22">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O22">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P22">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q22">
-        <v>8.618221259662667</v>
+        <v>13.80575531254511</v>
       </c>
       <c r="R22">
-        <v>77.56399133696399</v>
+        <v>124.251797812906</v>
       </c>
       <c r="S22">
-        <v>9.378599183219817E-05</v>
+        <v>0.0001068815430018295</v>
       </c>
       <c r="T22">
-        <v>9.378599183219814E-05</v>
+        <v>0.0001068815430018295</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H23">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I23">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J23">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>5.3792</v>
       </c>
       <c r="O23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q23">
-        <v>15.70675118293333</v>
+        <v>11.09797156302222</v>
       </c>
       <c r="R23">
-        <v>141.3607606464</v>
+        <v>99.8817440672</v>
       </c>
       <c r="S23">
-        <v>0.0001709254373692668</v>
+        <v>8.59183940315373E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001709254373692667</v>
+        <v>8.591839403153734E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H24">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I24">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J24">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N24">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q24">
-        <v>681.9635084944027</v>
+        <v>667.6957104123849</v>
       </c>
       <c r="R24">
-        <v>6137.671576449625</v>
+        <v>6009.261393711464</v>
       </c>
       <c r="S24">
-        <v>0.007421325365231657</v>
+        <v>0.00516917373725511</v>
       </c>
       <c r="T24">
-        <v>0.007421325365231654</v>
+        <v>0.005169173737255111</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H25">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I25">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J25">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N25">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q25">
-        <v>1315.86190564911</v>
+        <v>961.1851603002278</v>
       </c>
       <c r="R25">
-        <v>11842.75715084198</v>
+        <v>8650.66644270205</v>
       </c>
       <c r="S25">
-        <v>0.01431959220090139</v>
+        <v>0.007441313475257456</v>
       </c>
       <c r="T25">
-        <v>0.01431959220090139</v>
+        <v>0.007441313475257458</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H26">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I26">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J26">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N26">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q26">
-        <v>813.9756424884873</v>
+        <v>270.1465031771857</v>
       </c>
       <c r="R26">
-        <v>7325.780782396386</v>
+        <v>2431.318528594672</v>
       </c>
       <c r="S26">
-        <v>0.008857919825676604</v>
+        <v>0.002091423065414545</v>
       </c>
       <c r="T26">
-        <v>0.008857919825676602</v>
+        <v>0.002091423065414546</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H27">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I27">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J27">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N27">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O27">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P27">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q27">
-        <v>8.224510480995109</v>
+        <v>11.64686326096111</v>
       </c>
       <c r="R27">
-        <v>74.02059432895599</v>
+        <v>104.82176934865</v>
       </c>
       <c r="S27">
-        <v>8.95015165605794E-05</v>
+        <v>9.016780960413501E-05</v>
       </c>
       <c r="T27">
-        <v>8.950151656057938E-05</v>
+        <v>9.016780960413504E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H28">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I28">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J28">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>5.3792</v>
       </c>
       <c r="O28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q28">
-        <v>14.98921132728889</v>
+        <v>9.362512542222222</v>
       </c>
       <c r="R28">
-        <v>134.9029019456</v>
+        <v>84.26261288000001</v>
       </c>
       <c r="S28">
-        <v>0.0001631169598408793</v>
+        <v>7.248279896554356E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001631169598408793</v>
+        <v>7.248279896554359E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H29">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I29">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J29">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N29">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q29">
-        <v>650.8090073667885</v>
+        <v>563.2839683922889</v>
       </c>
       <c r="R29">
-        <v>5857.281066301096</v>
+        <v>5069.555715530601</v>
       </c>
       <c r="S29">
-        <v>0.007082293017342619</v>
+        <v>0.004360837804741794</v>
       </c>
       <c r="T29">
-        <v>0.007082293017342619</v>
+        <v>0.004360837804741795</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H30">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I30">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J30">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N30">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q30">
-        <v>1255.748687401059</v>
+        <v>810.8786427866918</v>
       </c>
       <c r="R30">
-        <v>11301.73818660953</v>
+        <v>7297.907785080226</v>
       </c>
       <c r="S30">
-        <v>0.01366542266570899</v>
+        <v>0.006277668882738844</v>
       </c>
       <c r="T30">
-        <v>0.01366542266570899</v>
+        <v>0.006277668882738846</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H31">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I31">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J31">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N31">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q31">
-        <v>776.790360936188</v>
+        <v>227.9020098286417</v>
       </c>
       <c r="R31">
-        <v>6991.113248425693</v>
+        <v>2051.118088457775</v>
       </c>
       <c r="S31">
-        <v>0.008453258770121569</v>
+        <v>0.001764374198459759</v>
       </c>
       <c r="T31">
-        <v>0.008453258770121569</v>
+        <v>0.001764374198459759</v>
       </c>
     </row>
   </sheetData>
